--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-15_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-15_end.xlsx
@@ -240,7 +240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="But should you recognize me, should you have understood me, should you realize just the sort of world you’re stood in...", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="But should you recognize me, should you have understood me, should you realize just the sort of world you're stood in...", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya!! Watch out!!  
+    <t xml:space="preserve">[name="Ch'en"] Amiya!! Watch out!!  
 </t>
   </si>
   <si>
